--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>화면명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,54 @@
   </si>
   <si>
     <t>SettingActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용할 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear, ListView(커스터마이징)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear, ListView(커스터마이징), Drawer?메뉴버튼 클릭 시 나타나기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브리드여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame, Linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +211,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -189,8 +246,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,144 +554,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="56.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>화면명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>Frame, Linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안작성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -566,9 +574,10 @@
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
     <col min="3" max="3" width="56.796875" customWidth="1"/>
     <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +590,11 @@
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -592,8 +604,11 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -603,8 +618,11 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -614,8 +632,11 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -629,7 +650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -640,7 +661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -651,7 +672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -662,7 +683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -676,7 +697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -686,8 +707,11 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -698,7 +722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -709,7 +733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -723,7 +747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -737,7 +761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -748,7 +772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="9456"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,15 +190,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Frame, Linear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초안작성여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative, linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,19 +565,19 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" customWidth="1"/>
-    <col min="3" max="3" width="56.796875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,10 +591,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -602,13 +602,13 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -619,10 +619,10 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -633,10 +633,10 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -650,7 +650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -661,7 +661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -697,7 +697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -708,10 +708,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -722,7 +722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -733,7 +733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -761,7 +761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -796,7 +796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,7 +809,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22050" windowHeight="9450"/>
+    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="9456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>화면명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>relative, linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면이동구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;홈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;마이페이지
+-&gt;알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt;닉네임변경
+-&gt;비밀번호변경
+-&gt;내글관리
+-&gt;내댓글관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +268,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,12 +296,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,22 +616,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="56.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="56.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +648,11 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,8 +665,11 @@
       <c r="E2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -621,8 +682,11 @@
       <c r="E3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -636,8 +700,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -649,8 +713,11 @@
       <c r="D5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -661,7 +728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -672,7 +739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -683,8 +750,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -696,8 +763,11 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -710,8 +780,11 @@
       <c r="E10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -721,8 +794,11 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -732,9 +808,12 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -746,9 +825,12 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
@@ -760,8 +842,11 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -772,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -796,7 +881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,7 +894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -234,7 +234,8 @@
     <t>-&gt;닉네임변경
 -&gt;비밀번호변경
 -&gt;내글관리
--&gt;내댓글관리</t>
+-&gt;내댓글관리
+-&gt;설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +620,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/activity_list.xlsx
+++ b/activity_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>화면명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
 -&gt;내글관리
 -&gt;내댓글관리
 -&gt;설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +624,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -713,6 +717,9 @@
       </c>
       <c r="D5" t="s">
         <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>52</v>
